--- a/ExcelReader/TestData/BookStore2.xlsx
+++ b/ExcelReader/TestData/BookStore2.xlsx
@@ -1,17 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Myroslava_Konko\Source\Mentoring\Hometasks\ExcelReader\TestData\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="0" yWindow="45" windowWidth="15960" windowHeight="18075"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="26">
   <si>
     <t>ID</t>
   </si>
@@ -83,28 +91,21 @@
   </si>
   <si>
     <t>Dark Tower: Song Of Susanne</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>false</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
-  </numFmts>
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="4">
     <font>
       <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
-    </font>
-    <font>
-      <sz val="14"/>
       <color indexed="8"/>
       <name val="Calibri"/>
     </font>
@@ -117,6 +118,13 @@
       <sz val="12"/>
       <color indexed="11"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="3">
@@ -158,32 +166,23 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
+  </cellStyleXfs>
+  <cellXfs count="8">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-  </cellStyleXfs>
-  <cellXfs count="7">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -192,25 +191,85 @@
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffaaaaaa"/>
-      <rgbColor rgb="ffe38400"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFAAAAAA"/>
+      <rgbColor rgb="FFE38400"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office Theme">
       <a:dk1>
@@ -412,7 +471,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -431,7 +490,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -461,7 +520,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -487,7 +546,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -513,7 +572,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -539,7 +598,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -565,7 +624,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -591,7 +650,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -617,7 +676,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -643,7 +702,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -669,7 +728,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -682,9 +741,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -701,7 +766,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -720,7 +785,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -746,7 +811,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -772,7 +837,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -798,7 +863,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -824,7 +889,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -850,7 +915,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -876,7 +941,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -902,7 +967,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -928,7 +993,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -954,7 +1019,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -967,9 +1032,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -983,7 +1054,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1002,7 +1073,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1032,7 +1103,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1058,7 +1129,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1084,7 +1155,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1110,7 +1181,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1136,7 +1207,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1162,7 +1233,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1188,7 +1259,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1214,7 +1285,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1240,7 +1311,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1253,78 +1324,86 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:IV10"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="14.75" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.85" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="8.85156" style="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="42.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="8.85156" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20.1719" style="1" customWidth="1"/>
-    <col min="6" max="6" width="20.1719" style="1" customWidth="1"/>
-    <col min="7" max="7" width="28.6719" style="1" customWidth="1"/>
-    <col min="8" max="8" width="20.1719" style="1" customWidth="1"/>
-    <col min="9" max="256" width="8.85156" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="42.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.85546875" style="1" customWidth="1"/>
+    <col min="5" max="6" width="20.140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="28.7109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="20.140625" style="1" customWidth="1"/>
+    <col min="9" max="256" width="8.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="17" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:8" ht="17.100000000000001" customHeight="1">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s" s="3">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s" s="4">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s" s="4">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" ht="15" customHeight="1">
+    <row r="2" spans="1:8" ht="15" customHeight="1">
       <c r="A2" s="5">
         <v>1</v>
       </c>
-      <c r="B2" t="s" s="2">
+      <c r="B2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" t="s" s="2">
+      <c r="C2" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D2" s="5">
         <v>75</v>
       </c>
-      <c r="E2" t="b" s="5">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s" s="2">
+      <c r="E2" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G2" s="5">
@@ -1334,23 +1413,23 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" ht="15" customHeight="1">
+    <row r="3" spans="1:8" ht="15" customHeight="1">
       <c r="A3" s="5">
         <v>2</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C3" t="s" s="6">
+      <c r="C3" s="6" t="s">
         <v>11</v>
       </c>
       <c r="D3" s="5">
         <v>110</v>
       </c>
-      <c r="E3" t="b" s="5">
-        <v>0</v>
-      </c>
-      <c r="F3" t="s" s="2">
+      <c r="E3" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G3" s="5">
@@ -1360,23 +1439,23 @@
         <v>90</v>
       </c>
     </row>
-    <row r="4" ht="15" customHeight="1">
+    <row r="4" spans="1:8" ht="15" customHeight="1">
       <c r="A4" s="5">
         <v>3</v>
       </c>
-      <c r="B4" t="s" s="2">
+      <c r="B4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C4" t="s" s="2">
+      <c r="C4" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D4" s="5">
         <v>160</v>
       </c>
-      <c r="E4" t="b" s="5">
-        <v>1</v>
-      </c>
-      <c r="F4" t="s" s="2">
+      <c r="E4" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G4" s="5">
@@ -1386,23 +1465,23 @@
         <v>140</v>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1">
+    <row r="5" spans="1:8" ht="15" customHeight="1">
       <c r="A5" s="5">
         <v>4</v>
       </c>
-      <c r="B5" t="s" s="2">
+      <c r="B5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="C5" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D5" s="5">
         <v>100</v>
       </c>
-      <c r="E5" t="b" s="5">
-        <v>1</v>
-      </c>
-      <c r="F5" t="s" s="2">
+      <c r="E5" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G5" s="5">
@@ -1412,23 +1491,23 @@
         <v>200</v>
       </c>
     </row>
-    <row r="6" ht="15" customHeight="1">
+    <row r="6" spans="1:8" ht="15" customHeight="1">
       <c r="A6" s="5">
         <v>5</v>
       </c>
-      <c r="B6" t="s" s="2">
+      <c r="B6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C6" t="s" s="2">
+      <c r="C6" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D6" s="5">
         <v>80</v>
       </c>
-      <c r="E6" t="b" s="5">
-        <v>0</v>
-      </c>
-      <c r="F6" t="s" s="2">
+      <c r="E6" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G6" s="5">
@@ -1438,23 +1517,23 @@
         <v>200</v>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1">
+    <row r="7" spans="1:8" ht="15" customHeight="1">
       <c r="A7" s="5">
         <v>6</v>
       </c>
-      <c r="B7" t="s" s="2">
+      <c r="B7" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C7" t="s" s="2">
+      <c r="C7" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D7" s="5">
         <v>80</v>
       </c>
-      <c r="E7" t="b" s="5">
-        <v>1</v>
-      </c>
-      <c r="F7" t="s" s="2">
+      <c r="E7" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G7" s="5">
@@ -1464,23 +1543,23 @@
         <v>180</v>
       </c>
     </row>
-    <row r="8" ht="15" customHeight="1">
+    <row r="8" spans="1:8" ht="15" customHeight="1">
       <c r="A8" s="5">
         <v>7</v>
       </c>
-      <c r="B8" t="s" s="2">
+      <c r="B8" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C8" t="s" s="2">
+      <c r="C8" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D8" s="5">
         <v>120</v>
       </c>
-      <c r="E8" t="b" s="5">
-        <v>0</v>
-      </c>
-      <c r="F8" t="s" s="2">
+      <c r="E8" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G8" s="5">
@@ -1490,23 +1569,23 @@
         <v>150</v>
       </c>
     </row>
-    <row r="9" ht="15" customHeight="1">
+    <row r="9" spans="1:8" ht="15" customHeight="1">
       <c r="A9" s="5">
         <v>8</v>
       </c>
-      <c r="B9" t="s" s="2">
+      <c r="B9" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C9" t="s" s="2">
+      <c r="C9" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D9" s="5">
         <v>115</v>
       </c>
-      <c r="E9" t="b" s="5">
-        <v>1</v>
-      </c>
-      <c r="F9" t="s" s="2">
+      <c r="E9" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G9" s="5">
@@ -1516,23 +1595,23 @@
         <v>140</v>
       </c>
     </row>
-    <row r="10" ht="15" customHeight="1">
+    <row r="10" spans="1:8" ht="15" customHeight="1">
       <c r="A10" s="5">
         <v>9</v>
       </c>
-      <c r="B10" t="s" s="2">
+      <c r="B10" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C10" t="s" s="2">
+      <c r="C10" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D10" s="5">
         <v>110</v>
       </c>
-      <c r="E10" t="b" s="5">
-        <v>1</v>
-      </c>
-      <c r="F10" t="s" s="2">
+      <c r="E10" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G10" s="5">
@@ -1544,7 +1623,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>

--- a/ExcelReader/TestData/BookStore2.xlsx
+++ b/ExcelReader/TestData/BookStore2.xlsx
@@ -1,25 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Myroslava_Konko\Source\Mentoring\Hometasks\ExcelReader\TestData\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <bookViews>
-    <workbookView xWindow="0" yWindow="45" windowWidth="15960" windowHeight="18075"/>
+    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="52">
   <si>
     <t>ID</t>
   </si>
@@ -45,67 +37,158 @@
     <t>Sold Books Count</t>
   </si>
   <si>
+    <t>1</t>
+  </si>
+  <si>
     <t>J.K. Rowling</t>
   </si>
   <si>
     <t>Harry Potter and The Chamber of Secrets</t>
   </si>
   <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
     <t>Fantasy</t>
   </si>
   <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
     <t>Harry Potter and The Goblet Of Fire</t>
   </si>
   <si>
+    <t>110</t>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
     <t>J.R. Tolkien</t>
   </si>
   <si>
     <t>Lord Of The Ring: Fellowship Of The Ring</t>
   </si>
   <si>
+    <t>160</t>
+  </si>
+  <si>
+    <t xml:space="preserve">true </t>
+  </si>
+  <si>
+    <t>140</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
     <t>Lord Of The Ring: Return Of The King</t>
   </si>
   <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>200</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
     <t>Stephen King</t>
   </si>
   <si>
     <t>Doctor Sleep</t>
   </si>
   <si>
+    <t>80</t>
+  </si>
+  <si>
     <t>Horror</t>
   </si>
   <si>
+    <t>6</t>
+  </si>
+  <si>
     <t>Ray Bradbury</t>
   </si>
   <si>
     <t>Martian Chronicles</t>
   </si>
   <si>
+    <t>180</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
     <t>Dandelion Wine</t>
   </si>
   <si>
+    <t>120</t>
+  </si>
+  <si>
     <t>Fiction</t>
   </si>
   <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>150</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
     <t>Dark Tower: Wasted Lands</t>
   </si>
   <si>
+    <t>115</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
     <t>Dark Tower: Song Of Susanne</t>
   </si>
   <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>false</t>
+    <t>50</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="0" formatCode="General"/>
+  </numFmts>
+  <fonts count="5">
     <font>
       <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Helvetica Neue"/>
+    </font>
+    <font>
+      <sz val="14"/>
       <color indexed="8"/>
       <name val="Calibri"/>
     </font>
@@ -118,13 +201,6 @@
       <sz val="12"/>
       <color indexed="11"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
     </font>
   </fonts>
   <fills count="3">
@@ -166,23 +242,29 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+  <cellXfs count="6">
+    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -191,85 +273,25 @@
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
-      <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFAAAAAA"/>
-      <rgbColor rgb="FFE38400"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
+      <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffffffff"/>
+      <rgbColor rgb="ffff0000"/>
+      <rgbColor rgb="ff00ff00"/>
+      <rgbColor rgb="ff0000ff"/>
+      <rgbColor rgb="ffffff00"/>
+      <rgbColor rgb="ffff00ff"/>
+      <rgbColor rgb="ff00ffff"/>
+      <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffffffff"/>
+      <rgbColor rgb="ffaaaaaa"/>
+      <rgbColor rgb="ffe38400"/>
     </indexedColors>
   </colors>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office Theme">
       <a:dk1>
@@ -471,7 +493,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -490,7 +512,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -520,7 +542,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -546,7 +568,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -572,7 +594,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -598,7 +620,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -624,7 +646,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -650,7 +672,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -676,7 +698,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -702,7 +724,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -728,7 +750,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -741,15 +763,9 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -766,7 +782,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -785,7 +801,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -811,7 +827,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -837,7 +853,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -863,7 +879,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -889,7 +905,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -915,7 +931,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -941,7 +957,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -967,7 +983,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -993,7 +1009,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1019,7 +1035,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1032,15 +1048,9 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1054,7 +1064,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1073,7 +1083,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1103,7 +1113,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1129,7 +1139,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1155,7 +1165,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1181,7 +1191,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1207,7 +1217,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1233,7 +1243,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1259,7 +1269,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1285,7 +1295,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1311,7 +1321,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1324,306 +1334,298 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:IV10"/>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
-    </sheetView>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.85" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="14.75" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="14.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="42.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="8.85546875" style="1" customWidth="1"/>
-    <col min="5" max="6" width="20.140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="28.7109375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="20.140625" style="1" customWidth="1"/>
-    <col min="9" max="256" width="8.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.85156" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="42.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.85156" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.1719" style="1" customWidth="1"/>
+    <col min="6" max="6" width="20.1719" style="1" customWidth="1"/>
+    <col min="7" max="7" width="28.6719" style="1" customWidth="1"/>
+    <col min="8" max="8" width="20.1719" style="1" customWidth="1"/>
+    <col min="9" max="256" width="8.85156" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="17.100000000000001" customHeight="1">
-      <c r="A1" s="2" t="s">
+    <row r="1" ht="17" customHeight="1">
+      <c r="A1" t="s" s="2">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" t="s" s="2">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" t="s" s="2">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" t="s" s="2">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" t="s" s="2">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" t="s" s="3">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" t="s" s="4">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" t="s" s="4">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15" customHeight="1">
-      <c r="A2" s="5">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
+    <row r="2" ht="15" customHeight="1">
+      <c r="A2" t="s" s="2">
         <v>8</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="B2" t="s" s="2">
         <v>9</v>
       </c>
-      <c r="D2" s="5">
-        <v>75</v>
-      </c>
-      <c r="E2" s="7" t="s">
+      <c r="C2" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="F2" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="G2" t="s" s="2">
+        <v>8</v>
+      </c>
+      <c r="H2" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" ht="15" customHeight="1">
+      <c r="A3" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s" s="5">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="E3" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="F3" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" ht="15" customHeight="1">
+      <c r="A4" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s" s="2">
         <v>24</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="5">
-        <v>1</v>
-      </c>
-      <c r="H2" s="5">
-        <v>100</v>
+      <c r="E4" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="F4" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="G4" t="s" s="2">
+        <v>8</v>
+      </c>
+      <c r="H4" t="s" s="2">
+        <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15" customHeight="1">
-      <c r="A3" s="5">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="5">
-        <v>110</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" s="5">
-        <v>0</v>
-      </c>
-      <c r="H3" s="5">
-        <v>90</v>
+    <row r="5" ht="15" customHeight="1">
+      <c r="A5" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="B5" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="D5" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E5" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="F5" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="G5" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="H5" t="s" s="2">
+        <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15" customHeight="1">
-      <c r="A4" s="5">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2" t="s">
+    <row r="6" ht="15" customHeight="1">
+      <c r="A6" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="B6" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="C6" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="D6" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="E6" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="F6" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="G6" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="H6" t="s" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" ht="15" customHeight="1">
+      <c r="A7" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="B7" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="C7" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D7" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="E7" t="s" s="2">
         <v>12</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="F7" t="s" s="2">
         <v>13</v>
       </c>
-      <c r="D4" s="5">
-        <v>160</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" s="5">
-        <v>1</v>
-      </c>
-      <c r="H4" s="5">
-        <v>140</v>
+      <c r="G7" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="H7" t="s" s="2">
+        <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15" customHeight="1">
-      <c r="A5" s="5">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2" t="s">
+    <row r="8" ht="15" customHeight="1">
+      <c r="A8" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="B8" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="C8" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="D8" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="E8" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="F8" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G8" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H8" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" ht="15" customHeight="1">
+      <c r="A9" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="B9" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="C9" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="D9" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="E9" t="s" s="2">
         <v>12</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="5">
-        <v>100</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G5" s="5">
-        <v>15</v>
-      </c>
-      <c r="H5" s="5">
-        <v>200</v>
+      <c r="F9" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="G9" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="H9" t="s" s="2">
+        <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15" customHeight="1">
-      <c r="A6" s="5">
-        <v>5</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="5">
-        <v>80</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F6" s="2" t="s">
+    <row r="10" ht="15" customHeight="1">
+      <c r="A10" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="B10" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="C10" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="D10" t="s" s="2">
         <v>17</v>
       </c>
-      <c r="G6" s="5">
-        <v>0</v>
-      </c>
-      <c r="H6" s="5">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="15" customHeight="1">
-      <c r="A7" s="5">
-        <v>6</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="5">
-        <v>80</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G7" s="5">
-        <v>5</v>
-      </c>
-      <c r="H7" s="5">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="15" customHeight="1">
-      <c r="A8" s="5">
-        <v>7</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="5">
-        <v>120</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G8" s="5">
-        <v>10</v>
-      </c>
-      <c r="H8" s="5">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="15" customHeight="1">
-      <c r="A9" s="5">
-        <v>8</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" s="5">
-        <v>115</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G9" s="5">
-        <v>15</v>
-      </c>
-      <c r="H9" s="5">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="15" customHeight="1">
-      <c r="A10" s="5">
-        <v>9</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" s="5">
-        <v>110</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G10" s="5">
-        <v>5</v>
-      </c>
-      <c r="H10" s="5">
-        <v>50</v>
+      <c r="E10" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="F10" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="G10" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="H10" t="s" s="2">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
